--- a/xlsx/sc_LanguageData.xlsx
+++ b/xlsx/sc_LanguageData.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A298C70-BFAC-42EA-91BE-815A12BDD6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8CC18B-75C5-4C25-B782-73D53F256949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2220" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="3045" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +84,14 @@
   </si>
   <si>
     <t>生死决战！</t>
+  </si>
+  <si>
+    <t>获得金币\n{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankUp\n+{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -161,6 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1321,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1497,6 +1500,42 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/sc_LanguageData.xlsx
+++ b/xlsx/sc_LanguageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8CC18B-75C5-4C25-B782-73D53F256949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF31989A-EEF9-460D-8992-4B271BBA388B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="3045" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="1980" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,101 +20,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>第{0}名</t>
+  </si>
+  <si>
+    <t>No{0}</t>
+  </si>
+  <si>
+    <t>+{0}</t>
+  </si>
+  <si>
+    <t>-{0}</t>
+  </si>
+  <si>
+    <t>躲避周圍污染的海水</t>
+  </si>
+  <si>
+    <t>吃掉其他玩家的魚\n成爲海底霸主！</t>
+  </si>
+  <si>
+    <t>生死决战！</t>
+  </si>
+  <si>
     <t>cn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>en</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江小鱼</t>
-  </si>
-  <si>
-    <t>江小魚</t>
-  </si>
-  <si>
-    <t>jiangxiaoyu</t>
-  </si>
-  <si>
-    <t>魚ちゃん</t>
-  </si>
-  <si>
-    <t>第{0}名</t>
-  </si>
-  <si>
-    <t>No{0}</t>
-  </si>
-  <si>
-    <t>+{0}</t>
-  </si>
-  <si>
-    <t>-{0}</t>
-  </si>
-  <si>
-    <t>躲避周圍污染的海水</t>
   </si>
   <si>
     <t>躲避周圍污染的海水(en)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>躲避周圍污染的海水(jp)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃掉其他玩家的魚\n成爲海底霸主！</t>
   </si>
   <si>
     <t>去吧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生死决战！</t>
   </si>
   <si>
     <t>获得金币\n{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RankUp\n+{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼状态界面</t>
+  </si>
+  <si>
+    <t>战力等级{0}</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>LevelUp</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>宝宝鱼</t>
+  </si>
+  <si>
+    <t>贪吃鱼</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>河豚鱼</t>
+  </si>
+  <si>
+    <t>看上去温柔可爱，可是如果你主动攻击它，它可不好惹</t>
+  </si>
+  <si>
+    <t>鱼名</t>
+  </si>
+  <si>
+    <t>鱼介绍</t>
+  </si>
+  <si>
+    <t>宝宝鱼长大形态，通过技能可以恢复大量体力</t>
+  </si>
+  <si>
+    <t>技能名</t>
+  </si>
+  <si>
+    <t>打嗝</t>
+  </si>
+  <si>
+    <t>肿胀</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -126,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -136,16 +204,68 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -153,16 +273,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,220 +1466,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="33.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="33.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="11">
+        <v>10000</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="11">
+        <v>10010</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="11">
+        <v>10011</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="11">
+        <v>10012</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="11">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="11">
+        <v>10030</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="11">
+        <v>10031</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="11">
+        <v>10032</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/xlsx/sc_LanguageData.xlsx
+++ b/xlsx/sc_LanguageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF31989A-EEF9-460D-8992-4B271BBA388B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A1A8D-CED5-4113-AD33-9EA70588BCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="1980" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>肿胀</t>
+  </si>
+  <si>
+    <t>鱼升级界面</t>
+  </si>
+  <si>
+    <t>是否将等级提升到{0}？</t>
   </si>
 </sst>
 </file>
@@ -194,27 +200,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -273,28 +264,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1469,7 +1458,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1481,488 +1470,500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="9">
+        <v>50</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="9">
         <v>10000</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="11">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="9">
         <v>10010</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A21" s="11">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="9">
         <v>10011</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A22" s="11">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="9">
         <v>10012</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="11">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="9">
         <v>10020</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="11">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="9">
         <v>10030</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A25" s="11">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="9">
         <v>10031</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A26" s="11">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="9">
         <v>10032</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xlsx/sc_LanguageData.xlsx
+++ b/xlsx/sc_LanguageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A1A8D-CED5-4113-AD33-9EA70588BCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72723065-BA3A-4FF9-95D9-1F1CDAA24948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="930" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -152,6 +152,69 @@
   </si>
   <si>
     <t>是否将等级提升到{0}？</t>
+  </si>
+  <si>
+    <t>昵称形容词</t>
+  </si>
+  <si>
+    <t>欢乐的</t>
+  </si>
+  <si>
+    <t>威严的</t>
+  </si>
+  <si>
+    <t>聪明的</t>
+  </si>
+  <si>
+    <t>美丽的</t>
+  </si>
+  <si>
+    <t>苗条的</t>
+  </si>
+  <si>
+    <t>肥胖的</t>
+  </si>
+  <si>
+    <t>宏伟的</t>
+  </si>
+  <si>
+    <t>壮丽的</t>
+  </si>
+  <si>
+    <t>高大的</t>
+  </si>
+  <si>
+    <t>矮小的</t>
+  </si>
+  <si>
+    <t>昵称名词</t>
+  </si>
+  <si>
+    <t>泡泡鱼</t>
+  </si>
+  <si>
+    <t>胖胖鱼</t>
+  </si>
+  <si>
+    <t>沸腾鱼</t>
+  </si>
+  <si>
+    <t>水煮鱼</t>
+  </si>
+  <si>
+    <t>青花鱼</t>
+  </si>
+  <si>
+    <t>跳跳鱼</t>
+  </si>
+  <si>
+    <t>食人鱼</t>
+  </si>
+  <si>
+    <t>小尾巴鱼</t>
+  </si>
+  <si>
+    <t>鲸鱼</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1798,171 +1861,563 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="9">
+        <v>10000</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
       <c r="A20" s="9">
-        <v>10000</v>
+        <v>10010</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="9">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="9">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
       <c r="A23" s="9">
-        <v>10012</v>
+        <v>10020</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="9">
-        <v>10020</v>
+        <v>10030</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="9">
-        <v>10030</v>
+        <v>10031</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
       <c r="A26" s="9">
-        <v>10031</v>
+        <v>10032</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
       <c r="A27" s="9">
-        <v>10032</v>
+        <v>20000</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="9">
+        <v>20001</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="9">
+        <v>20002</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>20003</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="9">
+        <v>20004</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="9">
+        <v>20005</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="9">
+        <v>20006</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="9">
+        <v>20007</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A35" s="9">
+        <v>20008</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A36" s="9">
+        <v>20009</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A37" s="9">
+        <v>21000</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A38" s="9">
+        <v>21001</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A39" s="9">
+        <v>21002</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A40" s="9">
+        <v>21003</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A41" s="9">
+        <v>21004</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="9">
+        <v>21005</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A43" s="9">
+        <v>21006</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A44" s="9">
+        <v>21007</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A45" s="9">
+        <v>21008</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A46" s="9">
+        <v>21009</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/sc_LanguageData.xlsx
+++ b/xlsx/sc_LanguageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72723065-BA3A-4FF9-95D9-1F1CDAA24948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07EED4-8C20-4767-B694-4484509B6370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="930" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>鲸鱼</t>
+  </si>
+  <si>
+    <t>水母</t>
+  </si>
+  <si>
+    <t>金龟</t>
   </si>
 </sst>
 </file>
@@ -327,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -357,6 +363,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:F46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2021,402 +2030,442 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="9">
-        <v>20000</v>
+      <c r="A27" s="12">
+        <v>10040</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
       <c r="A28" s="9">
-        <v>20001</v>
+        <v>10050</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="9">
-        <v>20002</v>
+        <v>20000</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>47</v>
+      <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
       <c r="A30" s="9">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
       <c r="A31" s="9">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="9">
-        <v>20005</v>
+        <v>20003</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
       <c r="A33" s="9">
-        <v>20006</v>
+        <v>20004</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
       <c r="A34" s="9">
-        <v>20007</v>
+        <v>20005</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
       <c r="A35" s="9">
-        <v>20008</v>
+        <v>20006</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
       <c r="A36" s="9">
-        <v>20009</v>
+        <v>20007</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="9">
-        <v>21000</v>
+        <v>20008</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
       <c r="A38" s="9">
-        <v>21001</v>
+        <v>20009</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
       <c r="A39" s="9">
-        <v>21002</v>
+        <v>21000</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
       <c r="A40" s="9">
-        <v>21003</v>
+        <v>21001</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
       <c r="A41" s="9">
-        <v>21004</v>
+        <v>21002</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
       <c r="A42" s="9">
-        <v>21005</v>
+        <v>21003</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
       <c r="A43" s="9">
-        <v>21006</v>
+        <v>21004</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
       <c r="A44" s="9">
-        <v>21007</v>
+        <v>21005</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
       <c r="A45" s="9">
-        <v>21008</v>
+        <v>21006</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
       <c r="A46" s="9">
-        <v>21009</v>
+        <v>21007</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A47" s="9">
+        <v>21008</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A48" s="9">
+        <v>21009</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>33</v>
       </c>
     </row>

--- a/xlsx/sc_LanguageData.xlsx
+++ b/xlsx/sc_LanguageData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">ID</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -1153,6 +1153,17 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">shopitem</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">金币商品1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -1231,6 +1242,61 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">金币商品5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">itemdata</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">钻石</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">宝宝鱼碎片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">青铜宝箱</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1238,7 +1304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <numFmts/>
   <fonts count="19">
     <font>
@@ -1555,7 +1621,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1604,7 +1670,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1887,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView showGridLines="true" view="normal" zoomScale="100" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0"/>
@@ -3974,9 +4040,11 @@
       <c r="A53" s="30" t="n">
         <v>30001.0</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="C53" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -4008,7 +4076,7 @@
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -4040,7 +4108,7 @@
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -4072,7 +4140,7 @@
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -4104,7 +4172,7 @@
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -4136,7 +4204,7 @@
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -4168,7 +4236,7 @@
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -4200,7 +4268,7 @@
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -4227,9 +4295,15 @@
       <c r="Z60" s="25"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="30" t="n">
+        <v>40001.0</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>132</v>
+      </c>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -4255,9 +4329,13 @@
       <c r="Z61" s="25"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="25"/>
+      <c r="A62" s="30" t="n">
+        <v>40002.0</v>
+      </c>
       <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="C62" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
@@ -4283,9 +4361,13 @@
       <c r="Z62" s="25"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="25"/>
+      <c r="A63" s="30" t="n">
+        <v>40003.0</v>
+      </c>
       <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="C63" s="34" t="s">
+        <v>134</v>
+      </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
@@ -4311,9 +4393,13 @@
       <c r="Z63" s="25"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="25"/>
+      <c r="A64" s="30" t="n">
+        <v>40004.0</v>
+      </c>
       <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="C64" s="34" t="s">
+        <v>135</v>
+      </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>

--- a/xlsx/sc_LanguageData.xlsx
+++ b/xlsx/sc_LanguageData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">ID</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -1242,6 +1242,17 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">金币商品5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">宝箱商品1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -1304,7 +1315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <numFmts/>
   <fonts count="19">
     <font>
@@ -1621,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:ns9="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1670,7 +1681,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:ns9="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1953,8 +1964,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <dimension ref="A1:Z203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+  <dimension ref="A1:Z204"/>
   <sheetViews>
     <sheetView showGridLines="true" view="normal" zoomScale="100" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4296,13 +4307,11 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="30" t="n">
-        <v>40001.0</v>
-      </c>
-      <c r="B61" s="34" t="s">
+        <v>30009.0</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
@@ -4330,9 +4339,11 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="30" t="n">
-        <v>40002.0</v>
-      </c>
-      <c r="B62" s="25"/>
+        <v>40001.0</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>132</v>
+      </c>
       <c r="C62" s="34" t="s">
         <v>133</v>
       </c>
@@ -4362,7 +4373,7 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="30" t="n">
-        <v>40003.0</v>
+        <v>40002.0</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="34" t="s">
@@ -4394,7 +4405,7 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="30" t="n">
-        <v>40004.0</v>
+        <v>40003.0</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="34" t="s">
@@ -4425,9 +4436,13 @@
       <c r="Z64" s="25"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="25"/>
+      <c r="A65" s="30" t="n">
+        <v>40004.0</v>
+      </c>
       <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="C65" s="34" t="s">
+        <v>136</v>
+      </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -8316,6 +8331,34 @@
       <c r="Y203" s="25"/>
       <c r="Z203" s="25"/>
     </row>
+    <row r="204" spans="1:26">
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="25"/>
+      <c r="J204" s="25"/>
+      <c r="K204" s="25"/>
+      <c r="L204" s="25"/>
+      <c r="M204" s="25"/>
+      <c r="N204" s="25"/>
+      <c r="O204" s="25"/>
+      <c r="P204" s="25"/>
+      <c r="Q204" s="25"/>
+      <c r="R204" s="25"/>
+      <c r="S204" s="25"/>
+      <c r="T204" s="25"/>
+      <c r="U204" s="25"/>
+      <c r="V204" s="25"/>
+      <c r="W204" s="25"/>
+      <c r="X204" s="25"/>
+      <c r="Y204" s="25"/>
+      <c r="Z204" s="25"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>